--- a/FinalProject/mock_courses_taken.xlsx
+++ b/FinalProject/mock_courses_taken.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/administrator/Documents/Projects/CS232_Assignments/FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D012A46F-0CC4-4345-B2E3-5AD26D211A2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73326FD0-5408-2C46-A8D2-044945AA4D8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="460" windowWidth="10480" windowHeight="19180" xr2:uid="{610C9729-745A-4348-9381-DBAB81EFF2DE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="143">
   <si>
     <t>student_id</t>
   </si>
@@ -445,6 +445,15 @@
   </si>
   <si>
     <t>73-0216525</t>
+  </si>
+  <si>
+    <t>01-7877196</t>
+  </si>
+  <si>
+    <t>34-3115004</t>
+  </si>
+  <si>
+    <t>82-9118928</t>
   </si>
 </sst>
 </file>
@@ -796,11 +805,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11860926-3F5A-0646-8DF7-57E3ABBC559F}">
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F199" sqref="F199"/>
+      <selection pane="bottomLeft" activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4191,6 +4200,79 @@
         <v>1</v>
       </c>
     </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>140</v>
+      </c>
+      <c r="B200" t="s">
+        <v>84</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>140</v>
+      </c>
+      <c r="B201" t="s">
+        <v>85</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>141</v>
+      </c>
+      <c r="B202" t="s">
+        <v>84</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>141</v>
+      </c>
+      <c r="B203" t="s">
+        <v>85</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>142</v>
+      </c>
+      <c r="B204" t="s">
+        <v>85</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
